--- a/data/customer/Vehicle_recall.xlsx
+++ b/data/customer/Vehicle_recall.xlsx
@@ -202,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -210,31 +210,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,9 +501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -530,614 +512,614 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>2009</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>2010</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>2009</v>
       </c>
-      <c r="D3" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>2010</v>
       </c>
-      <c r="D4" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>2009</v>
       </c>
-      <c r="D5" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>2009</v>
       </c>
-      <c r="D6" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>2010</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>2012</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4">
-        <v>2011</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D8" s="2">
         <v>2014</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>2010</v>
       </c>
-      <c r="D9" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>2010</v>
       </c>
-      <c r="D10" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>2010</v>
       </c>
-      <c r="D11" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="D11" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>2009</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>2010</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4">
-        <v>2011</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="C13" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D13" s="2">
         <v>2012</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>2009</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>2012</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>2009</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>2012</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>2009</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>2010</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>2009</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>2012</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>2007</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>2008</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>2007</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>2008</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>2007</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>2008</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>2005</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>2007</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>2008</v>
       </c>
-      <c r="D22" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>2005</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>2005</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>2006</v>
       </c>
-      <c r="D24" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D24" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>2009</v>
       </c>
-      <c r="D25" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="D25" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>2010</v>
       </c>
-      <c r="D26" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="D26" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="2">
         <v>2010</v>
       </c>
-      <c r="D27" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="4">
-        <v>2011</v>
-      </c>
-      <c r="D28" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E28" s="2" t="s">
+      <c r="C28" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>2010</v>
       </c>
-      <c r="D29" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="D29" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>2010</v>
       </c>
-      <c r="D30" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="D30" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="4">
-        <v>2011</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E31" s="2" t="s">
+      <c r="C31" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D31" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="4">
-        <v>2011</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="C32" s="2">
+        <v>2011</v>
+      </c>
+      <c r="D32" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>2008</v>
       </c>
-      <c r="D33" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>2008</v>
       </c>
-      <c r="D34" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E34" s="2" t="s">
+      <c r="D34" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>2008</v>
       </c>
-      <c r="D35" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>2009</v>
       </c>
-      <c r="D36" s="4">
-        <v>2011</v>
-      </c>
-      <c r="E36" s="2" t="s">
+      <c r="D36" s="2">
+        <v>2011</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>44</v>
       </c>
     </row>

--- a/data/customer/Vehicle_recall.xlsx
+++ b/data/customer/Vehicle_recall.xlsx
@@ -501,7 +501,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -587,10 +589,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>2009</v>
+        <v>2017</v>
       </c>
       <c r="D5" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>37</v>
@@ -927,10 +929,10 @@
         <v>34</v>
       </c>
       <c r="C25" s="2">
-        <v>2009</v>
+        <v>2016</v>
       </c>
       <c r="D25" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>37</v>
@@ -944,10 +946,10 @@
         <v>11</v>
       </c>
       <c r="C26" s="2">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="D26" s="2">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>44</v>
